--- a/grind-75.xlsx
+++ b/grind-75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewkight/GameDev/Leetcode-grind-75/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99257559-7595-084C-AD7D-ACC1B0DBE3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F97991-B20E-114F-B4E4-5774E7D49B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="2700" windowWidth="28040" windowHeight="17440" xr2:uid="{BF20C2E9-3CBC-4A41-9A68-782C20FD4C09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Problem</t>
   </si>
@@ -123,6 +123,45 @@
   </si>
   <si>
     <t>Product of array except self</t>
+  </si>
+  <si>
+    <t>DP, split into left and right sides, then sum them together at the end, takes 3 passes thru array</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Use a stack and a heap</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>recursive, pass max and min possible sides to the inner function</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>DFS, loop thru grid, and do dfs on all 1's not already visited</t>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>Adding Binary</t>
+  </si>
+  <si>
+    <t>Loop over in reverse with a carry bit</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Loop over and keep appending to list and checking if last element in the list is &gt; than the currernt element</t>
+  </si>
+  <si>
+    <t>BFS but keep track of how many fresh and how many rotten, then each round expand 1 from every rotten source</t>
   </si>
 </sst>
 </file>
@@ -495,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CD68D0-1BFF-B643-82F5-7F48E9B55334}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,11 +717,101 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
